--- a/ML_TablesAttributes.xlsx
+++ b/ML_TablesAttributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/belenmichel/Desktop/MSCAPP/7_Machine Learning/4_FinalProject_Crimes/ml-nc-recidivism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0071D9C4-463A-A048-9FA8-58E540DC2681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5F35A-98FB-8744-BC5F-B97E181F505D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="580" windowWidth="18420" windowHeight="19040" firstSheet="1" activeTab="8" xr2:uid="{FDF38482-DFA6-2441-BD0F-27680C262AD8}"/>
+    <workbookView xWindow="19980" yWindow="580" windowWidth="18420" windowHeight="19040" firstSheet="1" activeTab="7" xr2:uid="{FDF38482-DFA6-2441-BD0F-27680C262AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="4" r:id="rId1"/>
@@ -27,8 +27,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">INMT4AA1!$A$3:$D$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">INMT9CF1!$A$3:$A$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">OFNT1BA1!$A$4:$A$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">OFNT3CE1!$A$3:$D$59</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="392">
   <si>
     <t>column</t>
   </si>
@@ -878,6 +879,348 @@
   </si>
   <si>
     <t>TIME_OF_LAST_UPDATE_TWO</t>
+  </si>
+  <si>
+    <t>(district, superior, etc.)</t>
+  </si>
+  <si>
+    <t>(guilty, unknown, negotiated plea, jury trial)</t>
+  </si>
+  <si>
+    <t>(type of offense)</t>
+  </si>
+  <si>
+    <t>(principal, aid&amp;abet)</t>
+  </si>
+  <si>
+    <t>Primary felony/misdemeanor → do we only want felony sentences?</t>
+  </si>
+  <si>
+    <t>(0 seems to be missing value here)</t>
+  </si>
+  <si>
+    <t>ALAMANCE</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>ALLEGHANY</t>
+  </si>
+  <si>
+    <t>ANSON</t>
+  </si>
+  <si>
+    <t>ASHE</t>
+  </si>
+  <si>
+    <t>AVERY</t>
+  </si>
+  <si>
+    <t>BEAUFORT</t>
+  </si>
+  <si>
+    <t>BERTIE</t>
+  </si>
+  <si>
+    <t>BLADEN</t>
+  </si>
+  <si>
+    <t>BRUNSWICK</t>
+  </si>
+  <si>
+    <t>BUNCOMBE</t>
+  </si>
+  <si>
+    <t>BURKE</t>
+  </si>
+  <si>
+    <t>CABARRUS</t>
+  </si>
+  <si>
+    <t>CALDWELL</t>
+  </si>
+  <si>
+    <t>CAMDEN</t>
+  </si>
+  <si>
+    <t>CARTERET</t>
+  </si>
+  <si>
+    <t>CASWELL</t>
+  </si>
+  <si>
+    <t>CATAWBA</t>
+  </si>
+  <si>
+    <t>CHATHAM</t>
+  </si>
+  <si>
+    <t>CHEROKEE</t>
+  </si>
+  <si>
+    <t>CHOWAN</t>
+  </si>
+  <si>
+    <t>CLAY</t>
+  </si>
+  <si>
+    <t>CLEVELAND</t>
+  </si>
+  <si>
+    <t>COLUMBUS</t>
+  </si>
+  <si>
+    <t>CRAVEN</t>
+  </si>
+  <si>
+    <t>CUMBERLAND</t>
+  </si>
+  <si>
+    <t>CURRITUCK</t>
+  </si>
+  <si>
+    <t>DARE</t>
+  </si>
+  <si>
+    <t>DAVIDSON</t>
+  </si>
+  <si>
+    <t>DAVIE</t>
+  </si>
+  <si>
+    <t>DUPLIN</t>
+  </si>
+  <si>
+    <t>DURHAM</t>
+  </si>
+  <si>
+    <t>EDGECOMBE</t>
+  </si>
+  <si>
+    <t>FORSYTH</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>GASTON</t>
+  </si>
+  <si>
+    <t>GATES</t>
+  </si>
+  <si>
+    <t>GRAHAM</t>
+  </si>
+  <si>
+    <t>GRANVILLE</t>
+  </si>
+  <si>
+    <t>GREENE</t>
+  </si>
+  <si>
+    <t>GUILFORD</t>
+  </si>
+  <si>
+    <t>HALIFAX</t>
+  </si>
+  <si>
+    <t>HARNETT</t>
+  </si>
+  <si>
+    <t>HAYWOOD</t>
+  </si>
+  <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
+    <t>HERTFORD</t>
+  </si>
+  <si>
+    <t>HOKE</t>
+  </si>
+  <si>
+    <t>HYDE</t>
+  </si>
+  <si>
+    <t>IREDELL</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>JOHNSTON</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>LENOIR</t>
+  </si>
+  <si>
+    <t>LINCOLN</t>
+  </si>
+  <si>
+    <t>MACON</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>MCDOWELL</t>
+  </si>
+  <si>
+    <t>MECKLENBURG</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>MONTGOMERY</t>
+  </si>
+  <si>
+    <t>MOORE</t>
+  </si>
+  <si>
+    <t>NASH</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>HANOVER</t>
+  </si>
+  <si>
+    <t>NORTHAMPTON</t>
+  </si>
+  <si>
+    <t>ONSLOW</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>PAMLICO</t>
+  </si>
+  <si>
+    <t>PASQUOTANK</t>
+  </si>
+  <si>
+    <t>PENDER</t>
+  </si>
+  <si>
+    <t>PERQUIMANS</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>POLK</t>
+  </si>
+  <si>
+    <t>RANDOLPH</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>ROBESON</t>
+  </si>
+  <si>
+    <t>ROCKINGHAM</t>
+  </si>
+  <si>
+    <t>ROWAN</t>
+  </si>
+  <si>
+    <t>RUTHERFORD</t>
+  </si>
+  <si>
+    <t>SAMPSON</t>
+  </si>
+  <si>
+    <t>SCOTLAND</t>
+  </si>
+  <si>
+    <t>STANLY</t>
+  </si>
+  <si>
+    <t>STOKES</t>
+  </si>
+  <si>
+    <t>SURRY</t>
+  </si>
+  <si>
+    <t>SWAIN</t>
+  </si>
+  <si>
+    <t>TRANSYLVANIA</t>
+  </si>
+  <si>
+    <t>TYRRELL</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>VANCE</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>WARREN</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WATAUGA</t>
+  </si>
+  <si>
+    <t>WAYNE</t>
+  </si>
+  <si>
+    <t>WILKES</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>YADKIN</t>
+  </si>
+  <si>
+    <t>YANCEY</t>
+  </si>
+  <si>
+    <t>We will need to find a tabel that adds them into a higher level  (like districts) because they are 101 (too many to creat one dummy for each, no?)</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>How do we want to use this? We might not want to use it as a filter since understanding previous misdemeanors might tell something about future felonies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do we need to connect this to another variable? I don't really understand it </t>
+  </si>
+  <si>
+    <t>(jail credit, community service, work release recommended, electronic house arrest)</t>
+  </si>
+  <si>
+    <t>(don’t know what this means, lots of 0001-01-01)</t>
   </si>
 </sst>
 </file>
@@ -3512,7 +3855,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3520,12 +3863,12 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3535,8 +3878,14 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
@@ -3547,7 +3896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>195</v>
       </c>
@@ -3558,7 +3907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3569,7 +3918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>197</v>
       </c>
@@ -3580,7 +3929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>198</v>
       </c>
@@ -3591,7 +3940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>199</v>
       </c>
@@ -3602,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>200</v>
       </c>
@@ -3613,7 +3962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>201</v>
       </c>
@@ -3624,7 +3973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>202</v>
       </c>
@@ -3635,7 +3984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>203</v>
       </c>
@@ -3646,7 +3995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
@@ -3657,7 +4006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>205</v>
       </c>
@@ -3671,7 +4020,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>206</v>
       </c>
@@ -3824,10 +4173,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544B3194-95F1-EF46-A3EE-790240127E93}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3835,12 +4184,12 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3850,9 +4199,15 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B4" s="2">
@@ -3862,8 +4217,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B5" s="2">
@@ -3873,8 +4228,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B6" s="2">
@@ -3884,8 +4239,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B7" s="2">
@@ -3894,8 +4249,11 @@
       <c r="C7" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
@@ -3906,8 +4264,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B9" s="2">
@@ -3917,8 +4275,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B10" s="2">
@@ -3927,9 +4285,12 @@
       <c r="C10" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="2">
@@ -3938,8 +4299,11 @@
       <c r="C11" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
@@ -3950,7 +4314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -3961,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
@@ -3972,8 +4336,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B15" s="2">
@@ -3982,9 +4346,12 @@
       <c r="C15" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B16" s="2">
@@ -3993,9 +4360,12 @@
       <c r="C16" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B17" s="2">
@@ -4005,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>243</v>
       </c>
@@ -4016,7 +4386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>244</v>
       </c>
@@ -4027,8 +4397,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B20" s="2">
@@ -4037,8 +4407,14 @@
       <c r="C20" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>246</v>
       </c>
@@ -4049,7 +4425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>247</v>
       </c>
@@ -4060,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>248</v>
       </c>
@@ -4071,8 +4447,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B24" s="2">
@@ -4081,9 +4457,12 @@
       <c r="C24" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="D24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B25" s="2">
@@ -4092,9 +4471,12 @@
       <c r="C25" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="D25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B26" s="2">
@@ -4104,7 +4486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>252</v>
       </c>
@@ -4115,7 +4497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>253</v>
       </c>
@@ -4126,7 +4508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>254</v>
       </c>
@@ -4137,7 +4519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>255</v>
       </c>
@@ -4148,8 +4530,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B31" s="2">
@@ -4158,8 +4540,11 @@
       <c r="C31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>257</v>
       </c>
@@ -4336,7 +4721,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B48" s="2">
@@ -4358,7 +4743,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B50" s="2">
@@ -4369,7 +4754,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B51" s="2">
@@ -4467,27 +4852,855 @@
         <v>8</v>
       </c>
     </row>
+    <row r="68" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69">
+        <v>109776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70">
+        <v>18744</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72">
+        <v>17282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B73">
+        <v>11765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75">
+        <v>38345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76">
+        <v>13648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77">
+        <v>22306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B79">
+        <v>110751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B80">
+        <v>41201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81">
+        <v>84616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82">
+        <v>36367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B84">
+        <v>33030</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85">
+        <v>10365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86">
+        <v>63143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87">
+        <v>17541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B88">
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B89">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B91">
+        <v>51701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92">
+        <v>36599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93">
+        <v>55601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94">
+        <v>129068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B95">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B96">
+        <v>18802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97">
+        <v>84836</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B98">
+        <v>16710</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B99">
+        <v>30647</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100">
+        <v>114473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101">
+        <v>36308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B102">
+        <v>143614</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B103">
+        <v>19355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B106">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B107">
+        <v>21103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108">
+        <v>12946</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B109">
+        <v>194572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110">
+        <v>46238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111">
+        <v>48709</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112">
+        <v>25762</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113">
+        <v>37573</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B114">
+        <v>19573</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B115">
+        <v>25537</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B116">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B117">
+        <v>92295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B118">
+        <v>11318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119">
+        <v>63485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B120">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121">
+        <v>39518</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122">
+        <v>58383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B123">
+        <v>30581</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B124">
+        <v>10904</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125">
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B126">
+        <v>18283</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B127">
+        <v>26044</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B128">
+        <v>199595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B129">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B130">
+        <v>20975</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B131">
+        <v>51904</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132">
+        <v>48837</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B133" t="s">
+        <v>349</v>
+      </c>
+      <c r="C133">
+        <v>163974</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B134">
+        <v>12584</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B135">
+        <v>64743</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B136">
+        <v>32827</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B137">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B138">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B139">
+        <v>22820</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140">
+        <v>22445</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B141">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B142">
+        <v>23164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143">
+        <v>94762</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B144">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B145">
+        <v>66646</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B146">
+        <v>34336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B147">
+        <v>81117</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B148">
+        <v>57258</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B149">
+        <v>103247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B150">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B151">
+        <v>34943</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152">
+        <v>35480</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B153">
+        <v>24987</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B154">
+        <v>22927</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B155">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B156">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B157">
+        <v>10131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B158">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B159">
+        <v>49506</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B160">
+        <v>29121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B161">
+        <v>257750</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B162">
+        <v>7754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B163">
+        <v>8563</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B164">
+        <v>15714</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B165">
+        <v>78001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B166">
+        <v>53213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B167">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B168">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B169">
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:D59" xr:uid="{C9ACA54B-FEB5-D84C-BF89-E0F438C546EA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B446DD1F-FA07-934D-9964-2A7BE8FCE00E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4498,8 +5711,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B4" s="2">
@@ -4509,8 +5722,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B5" s="2">
@@ -4520,8 +5733,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B6" s="2">
@@ -4531,8 +5744,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B7" s="2">
@@ -4541,8 +5754,11 @@
       <c r="C7" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +5769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
@@ -4564,7 +5780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
@@ -4575,8 +5791,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B11" s="2">
@@ -4593,10 +5809,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C10BE0B-2D7E-6E40-ABDD-9AFD517DC563}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4621,7 +5837,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -4763,7 +5979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>226</v>
       </c>
@@ -4774,7 +5990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>226</v>
       </c>
@@ -4785,7 +6001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>226</v>
       </c>
@@ -4796,8 +6012,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B20" s="2">
@@ -4806,8 +6022,11 @@
       <c r="C20" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>171</v>
       </c>
@@ -4818,7 +6037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -4829,8 +6048,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="2">
